--- a/artfynd/A 61377-2025 artfynd.xlsx
+++ b/artfynd/A 61377-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130734160</v>
       </c>
       <c r="B2" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         <v>130734161</v>
       </c>
       <c r="B3" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         <v>130734159</v>
       </c>
       <c r="B4" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
